--- a/CLASES/BaseDeDatos_estadistica.xlsx
+++ b/CLASES/BaseDeDatos_estadistica.xlsx
@@ -6532,13 +6532,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6566,7 +6566,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>140</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>141</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>142</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>143</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -12677,7 +12677,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -13580,7 +13580,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -13727,7 +13727,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -14189,7 +14189,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -14210,7 +14210,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -14567,7 +14567,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -14651,7 +14651,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -14987,7 +14987,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -15323,7 +15323,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -15365,7 +15365,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -15491,7 +15491,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -15575,7 +15575,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -15848,7 +15848,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -16058,7 +16058,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -16100,7 +16100,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -16331,7 +16331,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -16373,7 +16373,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -16415,7 +16415,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="474" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -16520,7 +16520,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -16562,7 +16562,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -16583,7 +16583,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="482" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -16667,7 +16667,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="483" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -16730,7 +16730,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -16751,7 +16751,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -16772,7 +16772,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -16835,7 +16835,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -16852,11 +16852,11 @@
         <v>16.399999999999999</v>
       </c>
       <c r="F491" t="str">
-        <f t="shared" ref="F451:F514" si="8">IF(C491&lt;2.761,"Pobre",IF(C491&lt;4.067,"Q1",IF(C491&lt;4.51,"Q2",IF(C491&gt;4.96,"Q4","Q3"))))</f>
+        <f t="shared" ref="F491:F513" si="8">IF(C491&lt;2.761,"Pobre",IF(C491&lt;4.067,"Q1",IF(C491&lt;4.51,"Q2",IF(C491&gt;4.96,"Q4","Q3"))))</f>
         <v>Q1</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -16940,7 +16940,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -16982,7 +16982,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -17108,7 +17108,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -17150,7 +17150,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -17171,7 +17171,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -17192,7 +17192,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -17234,7 +17234,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -17255,7 +17255,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -17276,7 +17276,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -17402,7 +17402,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -17444,7 +17444,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -17507,7 +17507,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -17524,11 +17524,11 @@
         <v>17.739999999999998</v>
       </c>
       <c r="F523" t="str">
-        <f t="shared" ref="F515:F578" si="13">IF(C523&lt;2.761,"Pobre",IF(C523&lt;4.067,"Q1",IF(C523&lt;4.51,"Q2",IF(C523&gt;4.96,"Q4","Q3"))))</f>
+        <f t="shared" ref="F523:F578" si="13">IF(C523&lt;2.761,"Pobre",IF(C523&lt;4.067,"Q1",IF(C523&lt;4.51,"Q2",IF(C523&gt;4.96,"Q4","Q3"))))</f>
         <v>Q1</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -17591,7 +17591,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>Pobre</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -17675,7 +17675,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -17738,7 +17738,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -17759,7 +17759,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="535" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -17822,7 +17822,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -17843,7 +17843,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -17864,7 +17864,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="540" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -17906,7 +17906,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -17927,7 +17927,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -18032,7 +18032,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -18095,7 +18095,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -18116,7 +18116,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -18137,7 +18137,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -18158,7 +18158,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -18179,7 +18179,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -18200,7 +18200,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -18263,7 +18263,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -18305,7 +18305,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -18326,7 +18326,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -18347,7 +18347,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -18368,7 +18368,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -18494,7 +18494,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -18536,7 +18536,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -18599,7 +18599,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -18620,7 +18620,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -18662,7 +18662,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -18683,7 +18683,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -18704,7 +18704,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -18721,11 +18721,11 @@
         <v>17.73</v>
       </c>
       <c r="F580" t="str">
-        <f t="shared" ref="F579:F600" si="21">IF(C580&lt;2.761,"Pobre",IF(C580&lt;4.067,"Q1",IF(C580&lt;4.51,"Q2",IF(C580&gt;4.96,"Q4","Q3"))))</f>
+        <f t="shared" ref="F580:F600" si="21">IF(C580&lt;2.761,"Pobre",IF(C580&lt;4.067,"Q1",IF(C580&lt;4.51,"Q2",IF(C580&gt;4.96,"Q4","Q3"))))</f>
         <v>Q2</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -18830,7 +18830,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -18851,7 +18851,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>586</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -18935,7 +18935,7 @@
         <v>Q2</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -18977,7 +18977,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -19019,7 +19019,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -19040,7 +19040,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -19061,7 +19061,7 @@
         <v>Q4</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -19082,7 +19082,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>Q3</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>Q1</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -20746,13 +20746,7 @@
       <c r="E1000" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F600">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Pobre"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F600"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
